--- a/gpt_p.xlsx
+++ b/gpt_p.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042CB718-FAA1-48A7-8A5A-CBB117C5190F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B59865-80A5-441C-A253-CB07213BA178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{56072D60-3328-4590-8EFF-FB7042306649}"/>
+    <workbookView xWindow="5490" yWindow="1635" windowWidth="21600" windowHeight="11385" xr2:uid="{56072D60-3328-4590-8EFF-FB7042306649}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="179">
   <si>
     <t>기술 활용을 통한 산업 발전</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -472,10 +472,6 @@
   </si>
   <si>
     <t>Company Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Year</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -704,7 +700,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -713,9 +709,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
@@ -1032,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B821810-8D4F-4D86-8291-E2A16BB2E66A}">
-  <dimension ref="A1:AE7"/>
+  <dimension ref="A1:AE6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1045,653 +1038,558 @@
         <v>143</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="3">
-        <v>2020</v>
-      </c>
-      <c r="C2" s="3">
-        <v>2020</v>
-      </c>
-      <c r="D2" s="3">
-        <v>2020</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2020</v>
-      </c>
-      <c r="F2" s="3">
-        <v>2020</v>
-      </c>
-      <c r="G2" s="3">
-        <v>2020</v>
-      </c>
-      <c r="H2" s="3">
-        <v>2020</v>
-      </c>
-      <c r="I2" s="3">
-        <v>2020</v>
-      </c>
-      <c r="J2" s="3">
-        <v>2020</v>
-      </c>
-      <c r="K2" s="3">
-        <v>2020</v>
-      </c>
-      <c r="L2" s="3">
-        <v>2021</v>
-      </c>
-      <c r="M2" s="3">
-        <v>2021</v>
-      </c>
-      <c r="N2" s="3">
-        <v>2021</v>
-      </c>
-      <c r="O2" s="3">
-        <v>2021</v>
-      </c>
-      <c r="P2" s="3">
-        <v>2021</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>2021</v>
-      </c>
-      <c r="R2" s="3">
-        <v>2021</v>
-      </c>
-      <c r="S2" s="3">
-        <v>2021</v>
-      </c>
-      <c r="T2" s="3">
-        <v>2021</v>
-      </c>
-      <c r="U2" s="3">
-        <v>2021</v>
-      </c>
-      <c r="V2" s="3">
-        <v>2022</v>
-      </c>
-      <c r="W2" s="3">
-        <v>2022</v>
-      </c>
-      <c r="X2" s="3">
-        <v>2022</v>
-      </c>
-      <c r="Y2" s="3">
-        <v>2022</v>
-      </c>
-      <c r="Z2" s="3">
-        <v>2022</v>
-      </c>
-      <c r="AA2" s="3">
-        <v>2022</v>
-      </c>
-      <c r="AB2" s="3">
-        <v>2022</v>
-      </c>
-      <c r="AC2" s="3">
-        <v>2022</v>
-      </c>
-      <c r="AD2" s="3">
-        <v>2022</v>
-      </c>
-      <c r="AE2" s="3">
-        <v>2022</v>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE3" s="4" t="s">
-        <v>28</v>
+      <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE4" s="4" t="s">
-        <v>57</v>
+      <c r="B4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y5" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA5" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB5" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC5" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD5" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE5" s="4" t="s">
-        <v>86</v>
+      <c r="B5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE6" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J6" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4" t="s">
+      <c r="K6" s="3"/>
+      <c r="L6" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M6" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N6" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O6" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="P6" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="Q6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="R6" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="S6" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="T7" s="4" t="s">
+      <c r="T6" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="U7" s="4" t="s">
+      <c r="U6" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="V7" s="4" t="s">
+      <c r="V6" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="W7" s="4" t="s">
+      <c r="W6" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="X7" s="4" t="s">
+      <c r="X6" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="Y7" s="4" t="s">
+      <c r="Y6" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="Z7" s="4" t="s">
+      <c r="Z6" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="AA7" s="4" t="s">
+      <c r="AA6" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="AB7" s="4" t="s">
+      <c r="AB6" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="AC7" s="4" t="s">
+      <c r="AC6" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="AD7" s="4" t="s">
+      <c r="AD6" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="AE7" s="4" t="s">
+      <c r="AE6" s="3" t="s">
         <v>142</v>
       </c>
     </row>
